--- a/parcialpromocion/Calificaciones Integrador.xlsx
+++ b/parcialpromocion/Calificaciones Integrador.xlsx
@@ -932,7 +932,7 @@
         <v>4.0</v>
       </c>
       <c r="D10" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" s="3">
         <v>4.0</v>
@@ -941,17 +941,17 @@
         <v>3.0</v>
       </c>
       <c r="G10" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" s="4">
         <f t="array" ref="I10">ROUND(SUMPRODUCT(TRANSPOSE(CONFIG!$B$4:$B$9),C10:H10)*CONFIG!$B$2/5,0)</f>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J10" s="6">
-        <v>65.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="11">
@@ -971,17 +971,17 @@
         <v>3.0</v>
       </c>
       <c r="F11" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G11" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H11" s="3">
         <v>4.0</v>
       </c>
       <c r="I11" s="4">
         <f t="array" ref="I11">ROUND(SUMPRODUCT(TRANSPOSE(CONFIG!$B$4:$B$9),C11:H11)*CONFIG!$B$2/5,0)</f>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J11" s="6">
         <v>80.0</v>
@@ -1017,7 +1017,7 @@
         <v>50</v>
       </c>
       <c r="J12" s="6">
-        <v>50.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="13">
